--- a/Plotting/0.7.5/KAS.xlsx
+++ b/Plotting/0.7.5/KAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.7.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.7.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB0CF03-E7CB-4775-833A-17528F136E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B97B244-ACC0-4A89-A2CE-42580A781EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1764" windowWidth="15192" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1764" windowWidth="15228" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAS" sheetId="1" r:id="rId1"/>
@@ -928,12 +928,13 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E7" sqref="E7:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,97 +953,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2" si="0">"@PART["&amp;A2&amp;"]:AFTER["&amp;D2&amp;"] //
+        <f>"@PART["&amp;A2&amp;"]:AFTER["&amp;D2&amp;"] //
 {
 	@TechRequired = "&amp;B2&amp;C2&amp;"
 }"</f>
-        <v>@PART[KAS.CH1]:AFTER[KAS] //
-{
-	@TechRequired = construction
+        <v>@PART[KAS.PortPylon]:AFTER[KAS] //
+{
+	@TechRequired = bases9
 }</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E12" si="1">"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
+        <f>"@PART["&amp;A3&amp;"]:AFTER["&amp;D3&amp;"] //
 {
 	@TechRequired = "&amp;B3&amp;C3&amp;"
 }"</f>
-        <v>@PART[KAS.PCB1]:AFTER[KAS] //
-{
-	@TechRequired = construction
+        <v>@PART[KAS.PortPylonPwr]:AFTER[KAS] //
+{
+	@TechRequired = bases11
 }</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KAS.JS1]:AFTER[KAS] //
-{
-	@TechRequired = construction
+        <f>"@PART["&amp;A4&amp;"]:AFTER["&amp;D4&amp;"] //
+{
+	@TechRequired = "&amp;B4&amp;C4&amp;"
+}"</f>
+        <v>@PART[KAS.CH1]:AFTER[KAS] //
+{
+	@TechRequired = construction7
 }</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KAS.PortPylon]:AFTER[KAS] //
-{
-	@TechRequired = bases
+        <f>"@PART["&amp;A5&amp;"]:AFTER["&amp;D5&amp;"] //
+{
+	@TechRequired = "&amp;B5&amp;C5&amp;"
+}"</f>
+        <v>@PART[KAS.PCB1]:AFTER[KAS] //
+{
+	@TechRequired = construction7
 }</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>@PART[KAS.PortPylonPwr]:AFTER[KAS] //
-{
-	@TechRequired = bases
+        <f>"@PART["&amp;A6&amp;"]:AFTER["&amp;D6&amp;"] //
+{
+	@TechRequired = "&amp;B6&amp;C6&amp;"
+}"</f>
+        <v>@PART[KAS.JS1]:AFTER[KAS] //
+{
+	@TechRequired = construction8
 }</v>
       </c>
     </row>
@@ -1053,14 +1078,20 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f>"@PART["&amp;A7&amp;"]:AFTER["&amp;D7&amp;"] //
+{
+	@TechRequired = "&amp;B7&amp;C7&amp;"
+}"</f>
         <v>@PART[KAS.RTS1]:AFTER[KAS] //
 {
-	@TechRequired = construction
+	@TechRequired = construction9
 }</v>
       </c>
     </row>
@@ -1071,14 +1102,20 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f>"@PART["&amp;A8&amp;"]:AFTER["&amp;D8&amp;"] //
+{
+	@TechRequired = "&amp;B8&amp;C8&amp;"
+}"</f>
         <v>@PART[KAS.TB60]:AFTER[KAS] //
 {
-	@TechRequired = construction
+	@TechRequired = construction9
 }</v>
       </c>
     </row>
@@ -1089,14 +1126,20 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f>"@PART["&amp;A9&amp;"]:AFTER["&amp;D9&amp;"] //
+{
+	@TechRequired = "&amp;B9&amp;C9&amp;"
+}"</f>
         <v>@PART[KAS.TJ1]:AFTER[KAS] //
 {
-	@TechRequired = construction
+	@TechRequired = construction9
 }</v>
       </c>
     </row>
@@ -1107,14 +1150,20 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f>"@PART["&amp;A10&amp;"]:AFTER["&amp;D10&amp;"] //
+{
+	@TechRequired = "&amp;B10&amp;C10&amp;"
+}"</f>
         <v>@PART[KAS.TJ2]:AFTER[KAS] //
 {
-	@TechRequired = construction
+	@TechRequired = construction9
 }</v>
       </c>
     </row>
@@ -1125,14 +1174,20 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f>"@PART["&amp;A11&amp;"]:AFTER["&amp;D11&amp;"] //
+{
+	@TechRequired = "&amp;B11&amp;C11&amp;"
+}"</f>
         <v>@PART[KAS.W1]:AFTER[KAS] //
 {
-	@TechRequired = construction
+	@TechRequired = construction9
 }</v>
       </c>
     </row>
@@ -1143,18 +1198,28 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f>"@PART["&amp;A12&amp;"]:AFTER["&amp;D12&amp;"] //
+{
+	@TechRequired = "&amp;B12&amp;C12&amp;"
+}"</f>
         <v>@PART[KAS.W2]:AFTER[KAS] //
 {
-	@TechRequired = construction
+	@TechRequired = construction9
 }</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="B2:B12"/>
+    <sortCondition ref="C2:C12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>